--- a/Test.xlsx
+++ b/Test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="214">
   <si>
     <t>単体テスト</t>
     <rPh sb="0" eb="2">
@@ -290,9 +290,6 @@
     <t>1ー26</t>
   </si>
   <si>
-    <t>1ー27</t>
-  </si>
-  <si>
     <t>1ー28</t>
   </si>
   <si>
@@ -737,6 +734,1406 @@
   </si>
   <si>
     <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した文字が出力される。半角英数字、ハイフン、＠マークのみ可能で、それ以外は弾く。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="13" eb="18">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力する。ただし「カタカナ」のみ、かつ11文字以下。</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力する。パスワードのなので、●で隠す。半角英数字のみ。</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="29" eb="34">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した文字が出力される。セキュリティのため●で表示し、半角英数字以外は弾く。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラジオボタンに選択する。初期値は「男」を選択している。</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択した性別が選べる。初期値が「男」で表示されている状態。</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力する。半角数字のみ入力可能で、7文字まで</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した数字が出力される。半角数字以外は弾き、8文字以上は出力させない。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドロップダウンから選択する。北海道から沖縄まで47都道府県の表示。初期値は空白。</t>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ホッカイドウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>オキナワ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択した都道府県が選べる。47都道府県がドロップダウンで表示されて、初期値は空白。</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力する。ひらがな、カタカナ、漢字、数字、ハイフン、スペースのみ入力可能。10文字までに制限。</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した文字が出力される。ひらがな、カタカナ、漢字、数字、ハイフン、スペース以外は弾く。11文字以上は弾く。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力する。ひらがな、カタカナ、漢字、数字、ハイフン、スペースのみ入力可能。100文字までに制限。</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した文字が出力される。ひらがな、カタカナ、漢字、数字、ハイフン、スペース以外は弾く。101文字以上は弾く。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドロップダウンから選択する。初期値は「一般」を選択済み。</t>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択したものが選べる。初期値は「一般」を選択済み。</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>センタクズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認するボタン</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>押す</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期画面プッシュ</t>
+    <rPh sb="0" eb="4">
+      <t>ショキガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「確認する」ボタンを押す。</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンを押して、次のregist_confirm.phpに遷移される。</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1ー27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1ー29</t>
+  </si>
+  <si>
+    <t>1ー30</t>
+  </si>
+  <si>
+    <t>1ー31</t>
+  </si>
+  <si>
+    <t>1ー32</t>
+  </si>
+  <si>
+    <t>1ー33</t>
+  </si>
+  <si>
+    <t>1ー34</t>
+  </si>
+  <si>
+    <t>1ー35</t>
+  </si>
+  <si>
+    <t>1ー36</t>
+  </si>
+  <si>
+    <t>1ー37</t>
+  </si>
+  <si>
+    <t>1ー38</t>
+  </si>
+  <si>
+    <t>1ー39</t>
+  </si>
+  <si>
+    <t>regist.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（姓）</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（都道府県）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市区町村）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シクチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力されておらず、登録ボタンが押されたとき、「名前（姓）が未入力です」と赤字でメッセージが出る。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未入力の状態で、確認ボタンを押す。</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値ありのため、未入力はない。</t>
+    <rPh sb="0" eb="3">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力されておらず、登録ボタンが押されたとき、「名前（名）が未入力です」と赤字でメッセージが出る。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力されておらず、登録ボタンが押されたとき、「カナ（姓）が未入力です」と赤字でメッセージが出る。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力されておらず、登録ボタンが押されたとき、「カナ（名）が未入力です」と赤字でメッセージが出る。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力されておらず、登録ボタンが押されたとき、「メールアドレスが未入力です」と赤字でメッセージが出る。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力されておらず、登録ボタンが押されたとき、「パスワードが未入力です」と赤字でメッセージが出る。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力されておらず、登録ボタンが押されたとき、「郵便番号が未入力です」と赤字でメッセージが出る。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力されておらず、登録ボタンが押されたとき、「住所（都道府県）が未入力です」と赤字でメッセージが出る。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力されておらず、登録ボタンが押されたとき、「住所（市区町村）が未入力です」と赤字でメッセージが出る。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>シクチョウソン</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力されておらず、登録ボタンが押されたとき、「住所（番地）が未入力です」と赤字でメッセージが出る。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未入力項目がある状態で、ボタンを押す。</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面（regist_confirm.php)に遷移せず、入力画面に戻す。</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前に戻るボタン</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録するボタン</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2ー1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2ー2</t>
+  </si>
+  <si>
+    <t>2ー3</t>
+  </si>
+  <si>
+    <t>2ー4</t>
+  </si>
+  <si>
+    <t>2ー5</t>
+  </si>
+  <si>
+    <t>2ー6</t>
+  </si>
+  <si>
+    <t>2ー7</t>
+  </si>
+  <si>
+    <t>2ー8</t>
+  </si>
+  <si>
+    <t>2ー9</t>
+  </si>
+  <si>
+    <t>2ー10</t>
+  </si>
+  <si>
+    <t>2ー11</t>
+  </si>
+  <si>
+    <t>2ー12</t>
+  </si>
+  <si>
+    <t>2ー13</t>
+  </si>
+  <si>
+    <t>2ー14</t>
+  </si>
+  <si>
+    <t>regist_confirm.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面表示</t>
+    <rPh sb="0" eb="4">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力画面で入力した後、確認するボタンを押し、遷移する。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ノチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録画面で入力したデータが表示される。</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録画面で入力したデータが表示される。セキュリティのため、●で表示。</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力画面で入力した後、確認するボタンを押し、遷移する。「前に戻る」ボタンがあるのを目視。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ノチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>モクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンプッシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力画面で入力した後、確認するボタンを押し、遷移する。「前に戻る」ボタンがあるのを目視。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ノチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前の登録画面に戻る。</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柴田航昂</t>
+    <rPh sb="0" eb="3">
+      <t>シバタコウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タカブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2ー16</t>
+  </si>
+  <si>
+    <t>regist_confirm.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2ー17</t>
+  </si>
+  <si>
+    <t>2ー18</t>
+  </si>
+  <si>
+    <t>2ー19</t>
+  </si>
+  <si>
+    <t>2ー20</t>
+  </si>
+  <si>
+    <t>2ー21</t>
+  </si>
+  <si>
+    <t>2ー22</t>
+  </si>
+  <si>
+    <t>2ー23</t>
+  </si>
+  <si>
+    <t>2ー24</t>
+  </si>
+  <si>
+    <t>2ー25</t>
+  </si>
+  <si>
+    <t>2ー26</t>
+  </si>
+  <si>
+    <t>2ー27</t>
+  </si>
+  <si>
+    <t>2ー28</t>
+  </si>
+  <si>
+    <t>2ー15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期画面での入力保持</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面で「前に戻る」ボタンを押して、登録画面に戻る。</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面で「登録する」ボタンを押して、完了画面に飛ぶ。</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前の登録画面に戻ったとき、確認画面で表示されたデータを保持している。</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前の登録画面に戻ったとき、確認画面で表示された属性のデータを保持したままにする。</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前の登録画面に戻ったとき、確認画面で表示された属性のデータを保持している。</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録する」ボタンを押すと、完了画面（regist_complete.php)に遷移する。</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3ー1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist_complete.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOPページ戻るボタン</t>
+    <rPh sb="6" eb="7">
+      <t>モド</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -744,7 +2141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,6 +2157,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -769,7 +2174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -825,30 +2230,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -888,36 +2269,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -945,12 +2302,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -959,7 +2316,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -972,13 +2329,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
@@ -987,25 +2344,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1035,10 +2380,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1321,19 +2675,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="67.109375" customWidth="1"/>
-    <col min="7" max="7" width="28.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" customWidth="1"/>
+    <col min="6" max="6" width="59.77734375" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" customWidth="1"/>
     <col min="9" max="9" width="16.109375" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" customWidth="1"/>
     <col min="11" max="11" width="14.88671875" customWidth="1"/>
@@ -1346,380 +2702,400 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>60</v>
+      <c r="E3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="16">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" s="20">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>61</v>
+      <c r="G4" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="16">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" s="20">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>62</v>
+      <c r="G5" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="16">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" s="20">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>63</v>
+      <c r="G6" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="16">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6" s="20">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>64</v>
+      <c r="G7" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="16">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="20">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>71</v>
+      <c r="G8" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="K8" s="20">
+        <v>54</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="16">
         <v>45393</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>65</v>
+      <c r="E9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="16">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="20">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>66</v>
+      <c r="G10" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="K10" s="20">
+        <v>54</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="16">
         <v>45393</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>67</v>
+      <c r="E11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="16">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="K11" s="20">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>68</v>
+      <c r="G12" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="16">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="20">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>69</v>
+      <c r="G13" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" s="20">
+        <v>54</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="16">
         <v>45393</v>
       </c>
     </row>
@@ -1727,136 +3103,144 @@
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>70</v>
+      <c r="E14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="16">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="14" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="16">
+        <v>45393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="20">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="18" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="K15" s="20">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="1:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>83</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" s="26">
+        <v>85</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="21">
         <v>45393</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="55.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>83</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="K18" s="20">
+        <v>86</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="16">
         <v>45393</v>
       </c>
     </row>
@@ -1864,302 +3248,1939 @@
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>85</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19" s="20">
+        <v>87</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="16">
         <v>45393</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="K20" s="20">
+      <c r="I20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" s="16">
         <v>45393</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="45.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="C21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>88</v>
+      </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="K21" s="20">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K21" s="16">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="43.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="C22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="K22" s="20">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" s="16">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="K23" s="20">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="16">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="44.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="K24" s="20">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K24" s="16">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="43.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="K25" s="20">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" s="16">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="K26" s="20">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" s="16">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="K27" s="20">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K27" s="16">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>107</v>
+      </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="K28" s="20">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K28" s="16">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>112</v>
+      </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K29" s="21">
+        <v>45394</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="1:11" ht="58.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K31" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="B32" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J33" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K33" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K34" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K35" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K36" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K37" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J38" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K38" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K39" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J40" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K40" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K41" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K42" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J43" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K43" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="18"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="25"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K45" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K46" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K47" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K48" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K49" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K50" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K51" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K52" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K53" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K54" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K55" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K56" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K57" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K58" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="18"/>
+    </row>
+    <row r="60" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K60" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K61" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K62" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K63" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K64" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K65" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K66" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K67" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K68" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K69" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K70" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K71" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K72" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K73" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="18"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="244">
   <si>
     <t>単体テスト</t>
     <rPh sb="0" eb="2">
@@ -2133,6 +2133,267 @@
     <t>TOPページ戻るボタン</t>
     <rPh sb="6" eb="7">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3ー2</t>
+  </si>
+  <si>
+    <t>3ー3</t>
+  </si>
+  <si>
+    <t>3ー4</t>
+  </si>
+  <si>
+    <t>3ー5</t>
+  </si>
+  <si>
+    <t>3ー6</t>
+  </si>
+  <si>
+    <t>3ー7</t>
+  </si>
+  <si>
+    <t>3ー8</t>
+  </si>
+  <si>
+    <t>3ー9</t>
+  </si>
+  <si>
+    <t>3ー10</t>
+  </si>
+  <si>
+    <t>3ー11</t>
+  </si>
+  <si>
+    <t>3ー12</t>
+  </si>
+  <si>
+    <t>3ー13</t>
+  </si>
+  <si>
+    <t>登録</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBへの登録</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面で表示されたデータが正しくDBに格納されている。</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面から「登録する」ボタンを押して、DBに登録させ、コマンドプロンプトなどでテーブルにデータが入っているか確認。</t>
+    <rPh sb="0" eb="4">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面から「登録する」ボタンを押して、DBに登録させ、コマンドプロンプトなどでテーブルにデータが入っているか確認。パスワードはハッシュ化させれているかも確認。</t>
+    <rPh sb="0" eb="4">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面で表示されたデータが正しくDBに格納されている。パスワードはハッシュ化され、元のパスワードが復元できないようになっている。</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>フクゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンプッシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンを押し、index.htmlに戻る。</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.htmlに戻る。</t>
+    <rPh sb="11" eb="12">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3ー14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist.complete.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面から、「登録する」ボタンを押す。</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面から飛んだ時、「」が表示される。そのテキストが、画面中央に大きい赤字で表示されている。</t>
+    <rPh sb="0" eb="4">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト表示</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柴田航昂</t>
+    <rPh sb="0" eb="3">
+      <t>シバタコウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柴田航昂</t>
+    <rPh sb="0" eb="3">
+      <t>シバタコウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タカブ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2141,7 +2402,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2162,6 +2423,39 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -2316,23 +2610,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -2341,16 +2626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2371,9 +2647,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2383,17 +2656,47 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2675,17 +2978,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
     <col min="5" max="5" width="21.21875" customWidth="1"/>
     <col min="6" max="6" width="59.77734375" customWidth="1"/>
     <col min="7" max="7" width="37.6640625" customWidth="1"/>
@@ -2697,1369 +3000,1375 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="10">
         <v>45393</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="6" t="s">
         <v>60</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="10">
         <v>45393</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="6" t="s">
         <v>61</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="10">
         <v>45393</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="6" t="s">
         <v>62</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="10">
         <v>45393</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="6" t="s">
         <v>63</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="10">
         <v>45393</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="6" t="s">
         <v>70</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="10">
         <v>45393</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="6" t="s">
         <v>64</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="10">
         <v>45393</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="6" t="s">
         <v>65</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="10">
         <v>45393</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="6" t="s">
         <v>66</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="10">
         <v>45393</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="6" t="s">
         <v>67</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="10">
         <v>45393</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="6" t="s">
         <v>68</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="10">
         <v>45393</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="6" t="s">
         <v>69</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="10">
         <v>45393</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="14" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:11" s="8" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="12" t="s">
+      <c r="H15" s="9"/>
+      <c r="I15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="10">
         <v>45393</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="9"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="9" t="s">
         <v>82</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="14">
         <v>45393</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="55.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="9" t="s">
         <v>82</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="10">
         <v>45393</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="9" t="s">
         <v>84</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J19" s="20" t="s">
+      <c r="J19" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="10">
         <v>45393</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="9" t="s">
         <v>84</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="10">
         <v>45393</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="45.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="9" t="s">
         <v>88</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K21" s="10">
         <v>45394</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="43.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="9" t="s">
         <v>91</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="10">
         <v>45394</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="9" t="s">
         <v>94</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="J23" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="10">
         <v>45394</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="44.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="9" t="s">
         <v>96</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="J24" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="10">
         <v>45394</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="43.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="9" t="s">
         <v>98</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J25" s="20" t="s">
+      <c r="J25" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K25" s="10">
         <v>45394</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="9" t="s">
         <v>101</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J26" s="20" t="s">
+      <c r="J26" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="10">
         <v>45394</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="9" t="s">
         <v>104</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J27" s="20" t="s">
+      <c r="J27" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K27" s="16">
+      <c r="K27" s="10">
         <v>45394</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="9" t="s">
         <v>107</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J28" s="20" t="s">
+      <c r="J28" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K28" s="10">
         <v>45394</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="9" t="s">
         <v>112</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J29" s="20" t="s">
+      <c r="J29" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="9"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:11" ht="58.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="9" t="s">
         <v>142</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="J31" s="20" t="s">
+      <c r="J31" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K31" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="9" t="s">
         <v>147</v>
       </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="J32" s="20" t="s">
+      <c r="J32" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K32" s="21">
+      <c r="K32" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="9" t="s">
         <v>148</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="J33" s="20" t="s">
+      <c r="J33" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K33" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="9" t="s">
         <v>149</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="J34" s="20" t="s">
+      <c r="J34" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K34" s="21">
+      <c r="K34" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="9" t="s">
         <v>150</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="J35" s="20" t="s">
+      <c r="J35" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K35" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="9" t="s">
         <v>151</v>
       </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="J36" s="20" t="s">
+      <c r="J36" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K36" s="21">
+      <c r="K36" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="24" t="s">
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="20" t="s">
+      <c r="I37" s="28"/>
+      <c r="J37" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K37" s="21">
+      <c r="K37" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="G38" s="9" t="s">
         <v>152</v>
       </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="J38" s="20" t="s">
+      <c r="J38" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K38" s="21">
+      <c r="K38" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G39" s="9" t="s">
         <v>153</v>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="1" t="s">
+      <c r="I39" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="J39" s="20" t="s">
+      <c r="J39" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K39" s="21">
+      <c r="K39" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="G40" s="9" t="s">
         <v>154</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="1" t="s">
+      <c r="I40" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="J40" s="20" t="s">
+      <c r="J40" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K40" s="21">
+      <c r="K40" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G41" s="9" t="s">
         <v>155</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="1" t="s">
+      <c r="I41" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="J41" s="20" t="s">
+      <c r="J41" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K41" s="21">
+      <c r="K41" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="24" t="s">
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="15" t="s">
         <v>146</v>
       </c>
       <c r="I42" s="1"/>
-      <c r="J42" s="20" t="s">
+      <c r="J42" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K42" s="21">
+      <c r="K42" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G43" s="9" t="s">
         <v>157</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J43" s="20" t="s">
+      <c r="J43" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K43" s="21">
+      <c r="K43" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="25"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="16"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="9" t="s">
         <v>178</v>
       </c>
       <c r="H45" s="1"/>
@@ -4069,30 +4378,30 @@
       <c r="J45" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K45" s="21">
+      <c r="K45" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="9" t="s">
         <v>178</v>
       </c>
       <c r="H46" s="1"/>
@@ -4102,30 +4411,30 @@
       <c r="J46" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K46" s="21">
+      <c r="K46" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="9" t="s">
         <v>178</v>
       </c>
       <c r="H47" s="1"/>
@@ -4135,30 +4444,30 @@
       <c r="J47" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K47" s="21">
+      <c r="K47" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="9" t="s">
         <v>178</v>
       </c>
       <c r="H48" s="1"/>
@@ -4168,30 +4477,30 @@
       <c r="J48" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K48" s="21">
+      <c r="K48" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="9" t="s">
         <v>178</v>
       </c>
       <c r="H49" s="1"/>
@@ -4201,30 +4510,30 @@
       <c r="J49" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K49" s="21">
+      <c r="K49" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="G50" s="15" t="s">
+      <c r="G50" s="9" t="s">
         <v>179</v>
       </c>
       <c r="H50" s="1"/>
@@ -4234,30 +4543,30 @@
       <c r="J50" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K50" s="21">
+      <c r="K50" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="9" t="s">
         <v>178</v>
       </c>
       <c r="H51" s="1"/>
@@ -4267,30 +4576,30 @@
       <c r="J51" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K51" s="21">
+      <c r="K51" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" s="9" t="s">
         <v>178</v>
       </c>
       <c r="H52" s="1"/>
@@ -4300,30 +4609,30 @@
       <c r="J52" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K52" s="21">
+      <c r="K52" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="9" t="s">
         <v>178</v>
       </c>
       <c r="H53" s="1"/>
@@ -4333,30 +4642,30 @@
       <c r="J53" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K53" s="21">
+      <c r="K53" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="9" t="s">
         <v>178</v>
       </c>
       <c r="H54" s="1"/>
@@ -4366,30 +4675,30 @@
       <c r="J54" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K54" s="21">
+      <c r="K54" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="9" t="s">
         <v>178</v>
       </c>
       <c r="H55" s="1"/>
@@ -4399,30 +4708,30 @@
       <c r="J55" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K55" s="21">
+      <c r="K55" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" s="9" t="s">
         <v>178</v>
       </c>
       <c r="H56" s="1"/>
@@ -4432,30 +4741,30 @@
       <c r="J56" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K56" s="21">
+      <c r="K56" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F57" s="15" t="s">
+      <c r="F57" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" s="9" t="s">
         <v>183</v>
       </c>
       <c r="H57" s="1"/>
@@ -4465,30 +4774,30 @@
       <c r="J57" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K57" s="21">
+      <c r="K57" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F58" s="15" t="s">
+      <c r="F58" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" s="9" t="s">
         <v>178</v>
       </c>
       <c r="H58" s="1"/>
@@ -4498,33 +4807,39 @@
       <c r="J58" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K58" s="21">
+      <c r="K58" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="G60" s="15" t="s">
+      <c r="G60" s="9" t="s">
         <v>205</v>
       </c>
       <c r="H60" s="1"/>
@@ -4534,30 +4849,30 @@
       <c r="J60" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K60" s="21">
+      <c r="K60" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="G61" s="15" t="s">
+      <c r="G61" s="9" t="s">
         <v>205</v>
       </c>
       <c r="H61" s="1"/>
@@ -4567,30 +4882,30 @@
       <c r="J61" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K61" s="21">
+      <c r="K61" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="G62" s="15" t="s">
+      <c r="G62" s="9" t="s">
         <v>205</v>
       </c>
       <c r="H62" s="1"/>
@@ -4600,30 +4915,30 @@
       <c r="J62" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K62" s="21">
+      <c r="K62" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="G63" s="15" t="s">
+      <c r="G63" s="9" t="s">
         <v>205</v>
       </c>
       <c r="H63" s="1"/>
@@ -4633,30 +4948,30 @@
       <c r="J63" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K63" s="21">
+      <c r="K63" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="G64" s="15" t="s">
+      <c r="G64" s="9" t="s">
         <v>205</v>
       </c>
       <c r="H64" s="1"/>
@@ -4666,30 +4981,30 @@
       <c r="J64" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K64" s="21">
+      <c r="K64" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="G65" s="15" t="s">
+      <c r="G65" s="9" t="s">
         <v>205</v>
       </c>
       <c r="H65" s="1"/>
@@ -4699,30 +5014,30 @@
       <c r="J65" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K65" s="21">
+      <c r="K65" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="G66" s="15" t="s">
+      <c r="G66" s="9" t="s">
         <v>206</v>
       </c>
       <c r="H66" s="1"/>
@@ -4732,30 +5047,30 @@
       <c r="J66" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K66" s="21">
+      <c r="K66" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="G67" s="15" t="s">
+      <c r="G67" s="9" t="s">
         <v>205</v>
       </c>
       <c r="H67" s="1"/>
@@ -4765,30 +5080,30 @@
       <c r="J67" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K67" s="21">
+      <c r="K67" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="G68" s="15" t="s">
+      <c r="G68" s="9" t="s">
         <v>207</v>
       </c>
       <c r="H68" s="1"/>
@@ -4798,30 +5113,30 @@
       <c r="J68" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K68" s="21">
+      <c r="K68" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="G69" s="15" t="s">
+      <c r="G69" s="9" t="s">
         <v>205</v>
       </c>
       <c r="H69" s="1"/>
@@ -4831,30 +5146,30 @@
       <c r="J69" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K69" s="21">
+      <c r="K69" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="G70" s="15" t="s">
+      <c r="G70" s="9" t="s">
         <v>205</v>
       </c>
       <c r="H70" s="1"/>
@@ -4864,30 +5179,30 @@
       <c r="J70" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K70" s="21">
+      <c r="K70" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="G71" s="15" t="s">
+      <c r="G71" s="9" t="s">
         <v>207</v>
       </c>
       <c r="H71" s="1"/>
@@ -4897,30 +5212,30 @@
       <c r="J71" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K71" s="21">
+      <c r="K71" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="G72" s="15" t="s">
+      <c r="G72" s="9" t="s">
         <v>205</v>
       </c>
       <c r="H72" s="1"/>
@@ -4930,30 +5245,30 @@
       <c r="J72" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K72" s="21">
+      <c r="K72" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="G73" s="15" t="s">
+      <c r="G73" s="9" t="s">
         <v>208</v>
       </c>
       <c r="H73" s="1"/>
@@ -4963,224 +5278,493 @@
       <c r="J73" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K73" s="21">
+      <c r="K73" s="14">
         <v>45394</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="18"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
+      <c r="A74" s="22"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+      <c r="D75" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1" t="s">
+      <c r="I75" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K75" s="14">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
+      <c r="D76" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1" t="s">
+      <c r="I76" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K76" s="14">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
+      <c r="D77" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1" t="s">
+      <c r="I77" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K77" s="14">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
+      <c r="D78" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1" t="s">
+      <c r="I78" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K78" s="14">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
+      <c r="D79" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1" t="s">
+      <c r="I79" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K79" s="14">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A80" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
+      <c r="D80" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>231</v>
+      </c>
       <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1" t="s">
+      <c r="I80" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K80" s="14">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A81" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
+      <c r="D81" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1" t="s">
+      <c r="I81" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K81" s="14">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A82" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C82" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
+      <c r="D82" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1" t="s">
+      <c r="I82" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K82" s="14">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A83" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C83" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
+      <c r="D83" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1" t="s">
+      <c r="I83" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K83" s="14">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A84" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C84" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
+      <c r="D84" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1" t="s">
+      <c r="I84" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K84" s="14">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A85" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
+      <c r="D85" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1" t="s">
+      <c r="I85" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K85" s="14">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A86" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
+      <c r="D86" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1" t="s">
+      <c r="I86" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K86" s="14">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
+      <c r="D87" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>235</v>
+      </c>
       <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
+      <c r="I87" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K87" s="14">
+        <v>45397</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
+      <c r="A88" s="22"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+    </row>
+    <row r="89" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A89" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F89" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="G89" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K89" s="14">
+        <v>45397</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="297">
   <si>
     <t>単体テスト</t>
     <rPh sb="0" eb="2">
@@ -1030,10 +1030,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テキストボックスに入力する。ひらがな、カタカナ、漢字、数字、ハイフン、スペースのみ入力可能。100文字までに制限。</t>
     <rPh sb="9" eb="11">
       <t>ニュウリョク</t>
@@ -1093,10 +1089,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ドロップダウンから選択する。初期値は「一般」を選択済み。</t>
     <rPh sb="9" eb="11">
       <t>センタク</t>
@@ -1360,14 +1352,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>未入力の状態で、確認ボタンを押す。</t>
     <rPh sb="0" eb="3">
       <t>ミニュウリョク</t>
@@ -2394,6 +2378,744 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>タカブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（姓）</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録日時</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4ー1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4ー2</t>
+  </si>
+  <si>
+    <t>4ー3</t>
+  </si>
+  <si>
+    <t>4ー4</t>
+  </si>
+  <si>
+    <t>4ー5</t>
+  </si>
+  <si>
+    <t>4ー6</t>
+  </si>
+  <si>
+    <t>4ー7</t>
+  </si>
+  <si>
+    <t>4ー8</t>
+  </si>
+  <si>
+    <t>4ー9</t>
+  </si>
+  <si>
+    <t>4ー10</t>
+  </si>
+  <si>
+    <t>4ー11</t>
+  </si>
+  <si>
+    <t>4ー12</t>
+  </si>
+  <si>
+    <t>表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスト一覧表示</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.htmlの「アカウント一覧」からlist.phpに遷移する。DBから正しくIDが抽出できているか確認する。</t>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBのデータからIDのデータが正しく、降順で表示されている。</t>
+    <rPh sb="15" eb="16">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBのデータからカナ（名）のデータが正しく、降順で表示されている。</t>
+    <rPh sb="11" eb="12">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBのデータからカナ（姓）のデータが正しく表示されている。</t>
+    <rPh sb="11" eb="12">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBのデータから名前（名）のデータが正しく表示されている。</t>
+    <rPh sb="8" eb="10">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBのデータから名前（姓）のデータが正しく表示されている。</t>
+    <rPh sb="8" eb="10">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBのデータからメールアドレスのデータが正しく表示されている。</t>
+    <rPh sb="20" eb="21">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBのデータから性別のデータが正しく表示されている。「0」の場合は「男」と表示させる。「1」のときは「女」と表示させる。</t>
+    <rPh sb="8" eb="10">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBのデータからアカウント権限のデータが正しく表示されている。「0」の場合は「一般」と表示させる。「1」のときは「管理者」と表示させる。</t>
+    <rPh sb="13" eb="15">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBのデータから削除フラグのデータが正しく表示されている。「0」の場合は「有効」と表示させ、「1」のときは「無効」と表示させる。</t>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBのデータから登録日時のデータが正しく表示される。DBはdatetime型になっていて、時間も表示されるが、今回は「年、月、日」のみ表示させる。</t>
+    <rPh sb="8" eb="12">
+      <t>トウロクニチジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBのデータから更新日時のデータが正しく表示される。DBはdatetime型になっていて、時間も表示されるが、今回は「年、月、日」のみ表示させる。</t>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まだ更新していないので今回は空白</t>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4ー13</t>
+  </si>
+  <si>
+    <t>「更新」ボタンを押すと、更新画面に遷移する。</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「削除」ボタンを押すと、削除画面に遷移する。</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柴田航昂</t>
+    <rPh sb="0" eb="2">
+      <t>シバタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タカブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.htmlの「アカウント一覧」からlist.phpに遷移する。DBから正しく名前（姓）が抽出できているか確認する。</t>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.htmlの「アカウント一覧」からlist.phpに遷移する。DBから正しく名前（名）が抽出できているか確認する。</t>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.htmlの「アカウント一覧」からlist.phpに遷移する。DBから正しくカナ（姓）が抽出できているか確認する。</t>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.htmlの「アカウント一覧」からlist.phpに遷移する。DBから正しくカナ（名）が抽出できているか確認する。</t>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.htmlの「アカウント一覧」からlist.phpに遷移する。DBから正しく性別が抽出できているか確認する。</t>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.htmlの「アカウント一覧」からlist.phpに遷移する。DBから正しくアカウント権限が抽出できているか確認する。</t>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.htmlの「アカウント一覧」からlist.phpに遷移する。DBから正しく削除フラグが抽出できているか確認する。</t>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.htmlの「アカウント一覧」からlist.phpに遷移する。DBから正しく登録日時が抽出できているか確認する。</t>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>トウロクニチジ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.htmlの「アカウント一覧」からlist.phpに遷移する。DBから正しく更新日時が抽出できているか確認する。</t>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>コウシンニチジ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.htmlの「アカウント一覧」からlist.phpに遷移する。正しく操作の欄に「更新」ボタンがあるのを確認。</t>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.htmlの「アカウント一覧」からlist.phpに遷移する。正しく操作の欄に「削除」ボタンがあるのを確認。</t>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2402,7 +3124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2445,17 +3167,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -2610,7 +3323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2695,7 +3408,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2978,13 +3694,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K89"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="9.88671875" customWidth="1"/>
     <col min="2" max="2" width="18.109375" customWidth="1"/>
@@ -2999,12 +3715,12 @@
     <col min="12" max="12" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13.8" thickBot="1">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.8" thickBot="1">
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
@@ -3039,7 +3755,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="26.4">
       <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
@@ -3072,7 +3788,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="26.4">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -3105,7 +3821,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="26.4">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -3138,7 +3854,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="26.4">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -3171,7 +3887,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="26.4">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -3204,7 +3920,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="26.4">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -3237,7 +3953,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="39.6">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -3270,7 +3986,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="26.4">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -3303,7 +4019,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="39.6">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -3336,7 +4052,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="26.4">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -3369,7 +4085,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="26.4">
       <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
@@ -3402,7 +4118,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="39.6">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
@@ -3435,7 +4151,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="8" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="8" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>38</v>
       </c>
@@ -3468,7 +4184,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="22"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -3481,12 +4197,12 @@
       <c r="J16" s="12"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="57.6" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>26</v>
@@ -3514,12 +4230,12 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="55.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="55.8" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>27</v>
@@ -3547,12 +4263,12 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="54.6" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>28</v>
@@ -3580,12 +4296,12 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="39.6">
       <c r="A20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>29</v>
@@ -3613,12 +4329,12 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="45.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="45.6" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>75</v>
@@ -3646,12 +4362,12 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="43.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="43.8" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>76</v>
@@ -3679,12 +4395,12 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="36" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>32</v>
@@ -3712,12 +4428,12 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="44.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="44.4" customHeight="1">
       <c r="A24" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>33</v>
@@ -3745,12 +4461,12 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="43.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="43.8" customHeight="1">
       <c r="A25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>35</v>
@@ -3778,12 +4494,12 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="55.2" customHeight="1">
       <c r="A26" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>34</v>
@@ -3801,8 +4517,8 @@
         <v>101</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="1" t="s">
-        <v>102</v>
+      <c r="I26" s="27" t="s">
+        <v>85</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>73</v>
@@ -3811,12 +4527,12 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="39.6">
       <c r="A27" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>36</v>
@@ -3828,14 +4544,14 @@
         <v>79</v>
       </c>
       <c r="F27" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="1" t="s">
-        <v>105</v>
+      <c r="I27" s="27" t="s">
+        <v>85</v>
       </c>
       <c r="J27" s="13" t="s">
         <v>73</v>
@@ -3844,12 +4560,12 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="33.6" customHeight="1">
       <c r="A28" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>37</v>
@@ -3861,14 +4577,14 @@
         <v>80</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>73</v>
@@ -3877,31 +4593,31 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="45" customHeight="1">
       <c r="A29" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C29" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="F29" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="G29" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>112</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J29" s="13" t="s">
         <v>73</v>
@@ -3910,7 +4626,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" s="22"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -3923,31 +4639,31 @@
       <c r="J30" s="12"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" ht="58.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="58.2" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D31" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="G31" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="27" t="s">
-        <v>105</v>
+        <v>240</v>
       </c>
       <c r="J31" s="13" t="s">
         <v>73</v>
@@ -3956,31 +4672,31 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="39.6">
       <c r="A32" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B32" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>129</v>
-      </c>
       <c r="D32" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>145</v>
-      </c>
       <c r="G32" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="28" t="s">
-        <v>105</v>
+      <c r="I32" s="27" t="s">
+        <v>240</v>
       </c>
       <c r="J32" s="13" t="s">
         <v>73</v>
@@ -3989,31 +4705,31 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="39.6">
       <c r="A33" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D33" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E33" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>145</v>
-      </c>
       <c r="G33" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="28" t="s">
-        <v>144</v>
+      <c r="I33" s="27" t="s">
+        <v>240</v>
       </c>
       <c r="J33" s="13" t="s">
         <v>73</v>
@@ -4022,31 +4738,31 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="39.6">
       <c r="A34" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D34" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E34" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F34" s="9" t="s">
+      <c r="G34" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>149</v>
-      </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="28" t="s">
-        <v>105</v>
+      <c r="I34" s="27" t="s">
+        <v>240</v>
       </c>
       <c r="J34" s="13" t="s">
         <v>73</v>
@@ -4055,31 +4771,31 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="39.6">
       <c r="A35" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D35" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E35" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>145</v>
-      </c>
       <c r="G35" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="28" t="s">
-        <v>105</v>
+      <c r="I35" s="27" t="s">
+        <v>240</v>
       </c>
       <c r="J35" s="13" t="s">
         <v>73</v>
@@ -4088,31 +4804,31 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="39.6">
       <c r="A36" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D36" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E36" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>145</v>
-      </c>
       <c r="G36" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="28" t="s">
-        <v>105</v>
+      <c r="I36" s="27" t="s">
+        <v>240</v>
       </c>
       <c r="J36" s="13" t="s">
         <v>73</v>
@@ -4121,24 +4837,26 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="I37" s="28"/>
+        <v>142</v>
+      </c>
+      <c r="I37" s="27" t="s">
+        <v>240</v>
+      </c>
       <c r="J37" s="13" t="s">
         <v>73</v>
       </c>
@@ -4146,31 +4864,31 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="39.6">
       <c r="A38" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D38" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E38" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>145</v>
-      </c>
       <c r="G38" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="28" t="s">
-        <v>105</v>
+      <c r="I38" s="27" t="s">
+        <v>240</v>
       </c>
       <c r="J38" s="13" t="s">
         <v>73</v>
@@ -4179,31 +4897,31 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="39.6">
       <c r="A39" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D39" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E39" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>145</v>
-      </c>
       <c r="G39" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="28" t="s">
-        <v>105</v>
+      <c r="I39" s="27" t="s">
+        <v>240</v>
       </c>
       <c r="J39" s="13" t="s">
         <v>73</v>
@@ -4212,31 +4930,31 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="39.6">
       <c r="A40" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D40" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E40" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>145</v>
-      </c>
       <c r="G40" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="28" t="s">
-        <v>105</v>
+      <c r="I40" s="27" t="s">
+        <v>240</v>
       </c>
       <c r="J40" s="13" t="s">
         <v>73</v>
@@ -4245,31 +4963,31 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="39.6">
       <c r="A41" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C41" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="F41" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E41" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>145</v>
-      </c>
       <c r="G41" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="28" t="s">
-        <v>143</v>
+      <c r="I41" s="27" t="s">
+        <v>240</v>
       </c>
       <c r="J41" s="13" t="s">
         <v>73</v>
@@ -4278,24 +4996,24 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="B42" s="17" t="s">
-        <v>127</v>
-      </c>
       <c r="C42" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="17" t="s">
         <v>139</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>141</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="13" t="s">
@@ -4305,27 +5023,27 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
@@ -4338,7 +5056,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" s="22"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -4349,469 +5067,469 @@
       <c r="J44" s="5"/>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K45" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K46" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K47" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11">
       <c r="A48" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K48" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11">
       <c r="A49" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K49" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="27.6" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B50" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G50" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>179</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K50" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11">
       <c r="A51" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K51" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11">
       <c r="A52" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K52" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11">
       <c r="A53" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K53" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11">
       <c r="A54" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K54" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11">
       <c r="A55" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>175</v>
-      </c>
       <c r="C55" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K55" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11">
       <c r="A56" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E56" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>176</v>
-      </c>
       <c r="F56" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K56" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="37.799999999999997" customHeight="1">
       <c r="A57" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E57" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F57" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F57" s="9" t="s">
-        <v>180</v>
-      </c>
       <c r="G57" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K57" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="34.200000000000003" customHeight="1">
       <c r="A58" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G58" s="9" t="s">
         <v>174</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>178</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K58" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11">
       <c r="A59" s="22"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -4820,469 +5538,469 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="39.6" customHeight="1">
       <c r="A60" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F60" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D60" s="9" t="s">
+      <c r="G60" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>205</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K60" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="26.4">
       <c r="A61" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D61" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G61" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>205</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K61" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="26.4">
       <c r="A62" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D62" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G62" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>205</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K62" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="26.4">
       <c r="A63" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D63" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G63" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>205</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K63" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="26.4">
       <c r="A64" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D64" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G64" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>205</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K64" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="26.4">
       <c r="A65" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D65" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G65" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>205</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K65" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="39.6">
       <c r="A66" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E66" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G66" s="9" t="s">
         <v>202</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>206</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K66" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="26.4">
       <c r="A67" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D67" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G67" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>205</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K67" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="26.4">
       <c r="A68" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F68" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G68" s="9" t="s">
         <v>203</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>207</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K68" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="26.4">
       <c r="A69" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D69" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G69" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>205</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K69" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="26.4">
       <c r="A70" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D70" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G70" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>205</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K70" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="26.4">
       <c r="A71" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D71" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>200</v>
-      </c>
       <c r="E71" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F71" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G71" s="9" t="s">
         <v>203</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>207</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K71" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="26.4">
       <c r="A72" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K72" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="26.4">
       <c r="A73" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B73" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>202</v>
-      </c>
       <c r="F73" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G73" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>208</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K73" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11">
       <c r="A74" s="22"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -5291,436 +6009,436 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
     </row>
-    <row r="75" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="33" customHeight="1">
       <c r="A75" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K75" s="14">
         <v>45397</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="26.4">
       <c r="A76" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K76" s="14">
         <v>45397</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="26.4">
       <c r="A77" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K77" s="14">
         <v>45397</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="26.4">
       <c r="A78" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K78" s="14">
         <v>45397</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="26.4">
       <c r="A79" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K79" s="14">
         <v>45397</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="52.8">
       <c r="A80" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D80" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F80" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="G80" s="9" t="s">
         <v>227</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K80" s="14">
         <v>45397</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="26.4">
       <c r="A81" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K81" s="14">
         <v>45397</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="26.4">
       <c r="A82" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K82" s="14">
         <v>45397</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="26.4">
       <c r="A83" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K83" s="14">
         <v>45397</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="26.4">
       <c r="A84" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="B84" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>226</v>
-      </c>
       <c r="E84" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K84" s="14">
         <v>45397</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="26.4">
       <c r="A85" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E85" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B85" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>227</v>
-      </c>
       <c r="F85" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K85" s="14">
         <v>45397</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="26.4">
       <c r="A86" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="G86" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>228</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K86" s="14">
         <v>45397</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="26.4">
       <c r="A87" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K87" s="14">
         <v>45397</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11">
       <c r="A88" s="22"/>
       <c r="B88" s="23"/>
       <c r="C88" s="23"/>
@@ -5733,37 +6451,468 @@
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
     </row>
-    <row r="89" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="39.6">
       <c r="A89" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C89" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B89" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>240</v>
-      </c>
       <c r="D89" s="17" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K89" s="14">
         <v>45397</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="38.4" customHeight="1">
+      <c r="A92" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K92" s="29">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="26.4">
+      <c r="A93" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K93" s="29">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="26.4">
+      <c r="A94" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K94" s="29">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="26.4">
+      <c r="A95" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K95" s="29">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="26.4">
+      <c r="A96" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K96" s="29">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="26.4">
+      <c r="A97" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K97" s="29">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="51" customHeight="1">
+      <c r="A98" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K98" s="29">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="57" customHeight="1">
+      <c r="A99" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K99" s="29">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="39.6">
+      <c r="A100" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K100" s="29">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="55.2" customHeight="1">
+      <c r="A101" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K101" s="29">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="52.8">
+      <c r="A102" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K102" s="29">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="38.4" customHeight="1">
+      <c r="A103" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K103" s="29">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="31.8" customHeight="1">
+      <c r="A104" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K104" s="29">
+        <v>45403</v>
       </c>
     </row>
   </sheetData>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="304">
   <si>
     <t>単体テスト</t>
     <rPh sb="0" eb="2">
@@ -1158,19 +1158,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボタンを押して、次のregist_confirm.phpに遷移される。</t>
-    <rPh sb="4" eb="5">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>OK</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1625,28 +1612,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>確認画面（regist_confirm.php)に遷移せず、入力画面に戻す。</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メールアドレス</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2296,10 +2261,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3ー14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>regist.complete.php</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2320,37 +2281,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>確認画面から飛んだ時、「」が表示される。そのテキストが、画面中央に大きい赤字で表示されている。</t>
-    <rPh sb="0" eb="4">
-      <t>カクニンガメン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>アカジ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テキスト表示</t>
     <rPh sb="4" eb="6">
       <t>ヒョウジ</t>
@@ -3116,6 +3046,123 @@
     </rPh>
     <rPh sb="56" eb="58">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべての項目が記入されているとき、ボタンを押して、次のregist_confirm.phpに遷移される。</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面（regist_confirm.php)に遷移せず、入力画面のままにする。</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3ー14</t>
+  </si>
+  <si>
+    <t>3ー15</t>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データが正しくDBに格納されている。削除フラグが「0」の場合は「有効」、「1」のときは無効にする。</t>
+    <rPh sb="4" eb="5">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースに正しくインサートできなかったとき、「エラーが発生したため、アカウント登録できませんでした」と赤字で表示させる。</t>
+    <rPh sb="7" eb="8">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移先は未実装</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ミジッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3124,7 +3171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3169,6 +3216,22 @@
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -3323,7 +3386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3412,6 +3475,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3696,11 +3768,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView tabSelected="1" topLeftCell="C100" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.88671875" customWidth="1"/>
     <col min="2" max="2" width="18.109375" customWidth="1"/>
@@ -3715,12 +3787,12 @@
     <col min="12" max="12" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" thickBot="1">
+    <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.8" thickBot="1">
+    <row r="2" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
@@ -3755,7 +3827,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="26.4">
+    <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
@@ -3788,7 +3860,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="26.4">
+    <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -3821,7 +3893,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="26.4">
+    <row r="5" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -3854,7 +3926,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="26.4">
+    <row r="6" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -3887,7 +3959,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="26.4">
+    <row r="7" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -3920,7 +3992,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="26.4">
+    <row r="8" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -3953,7 +4025,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="39.6">
+    <row r="9" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -3986,7 +4058,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="26.4">
+    <row r="10" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -4019,7 +4091,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="39.6">
+    <row r="11" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -4052,7 +4124,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="26.4">
+    <row r="12" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -4085,7 +4157,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="26.4">
+    <row r="13" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
@@ -4118,7 +4190,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="39.6">
+    <row r="14" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
@@ -4151,7 +4223,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="8" customFormat="1" ht="40.200000000000003" customHeight="1">
+    <row r="15" spans="1:11" s="8" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>38</v>
       </c>
@@ -4184,7 +4256,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -4197,12 +4269,12 @@
       <c r="J16" s="12"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" ht="57.6" customHeight="1">
+    <row r="17" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>26</v>
@@ -4230,12 +4302,12 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="55.8" customHeight="1">
+    <row r="18" spans="1:11" ht="55.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>27</v>
@@ -4263,12 +4335,12 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="54.6" customHeight="1">
+    <row r="19" spans="1:11" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>28</v>
@@ -4296,12 +4368,12 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="39.6">
+    <row r="20" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>29</v>
@@ -4329,12 +4401,12 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="45.6" customHeight="1">
+    <row r="21" spans="1:11" ht="45.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>75</v>
@@ -4362,12 +4434,12 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="43.8" customHeight="1">
+    <row r="22" spans="1:11" ht="43.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>76</v>
@@ -4395,12 +4467,12 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="36" customHeight="1">
+    <row r="23" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>32</v>
@@ -4428,12 +4500,12 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="44.4" customHeight="1">
+    <row r="24" spans="1:11" ht="44.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>33</v>
@@ -4461,12 +4533,12 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="43.8" customHeight="1">
+    <row r="25" spans="1:11" ht="43.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>35</v>
@@ -4494,12 +4566,12 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="55.2" customHeight="1">
+    <row r="26" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>34</v>
@@ -4527,12 +4599,12 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="39.6">
+    <row r="27" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>36</v>
@@ -4560,12 +4632,12 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="33.6" customHeight="1">
+    <row r="28" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>37</v>
@@ -4584,7 +4656,7 @@
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>73</v>
@@ -4593,12 +4665,12 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="45" customHeight="1">
+    <row r="29" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>106</v>
@@ -4613,11 +4685,11 @@
         <v>109</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>110</v>
+        <v>293</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J29" s="13" t="s">
         <v>73</v>
@@ -4626,7 +4698,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -4639,31 +4711,31 @@
       <c r="J30" s="12"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" ht="58.2" customHeight="1">
+    <row r="31" spans="1:11" ht="58.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B31" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>126</v>
-      </c>
       <c r="D31" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>139</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>140</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="27" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J31" s="13" t="s">
         <v>73</v>
@@ -4672,31 +4744,31 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="39.6">
+    <row r="32" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="27" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J32" s="13" t="s">
         <v>73</v>
@@ -4705,31 +4777,31 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="39.6">
+    <row r="33" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="27" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J33" s="13" t="s">
         <v>73</v>
@@ -4738,31 +4810,31 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="39.6">
+    <row r="34" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="27" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J34" s="13" t="s">
         <v>73</v>
@@ -4771,31 +4843,31 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="39.6">
+    <row r="35" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="27" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J35" s="13" t="s">
         <v>73</v>
@@ -4804,31 +4876,31 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="39.6">
+    <row r="36" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="27" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J36" s="13" t="s">
         <v>73</v>
@@ -4837,25 +4909,25 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I37" s="27" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J37" s="13" t="s">
         <v>73</v>
@@ -4864,31 +4936,31 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="39.6">
+    <row r="38" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="27" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J38" s="13" t="s">
         <v>73</v>
@@ -4897,31 +4969,31 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="39.6">
+    <row r="39" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="27" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J39" s="13" t="s">
         <v>73</v>
@@ -4930,31 +5002,31 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="39.6">
+    <row r="40" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="27" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J40" s="13" t="s">
         <v>73</v>
@@ -4963,31 +5035,31 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="39.6">
+    <row r="41" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="27" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J41" s="13" t="s">
         <v>73</v>
@@ -4996,24 +5068,24 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="13" t="s">
@@ -5023,27 +5095,27 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="40.200000000000003" customHeight="1">
+    <row r="43" spans="1:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="17" t="s">
         <v>124</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>125</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>106</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>153</v>
+        <v>294</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
@@ -5056,7 +5128,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -5067,469 +5139,469 @@
       <c r="J44" s="5"/>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B45" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F45" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E45" s="9" t="s">
+      <c r="G45" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K45" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B46" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F46" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E46" s="9" t="s">
+      <c r="G46" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K46" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B47" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F47" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E47" s="9" t="s">
+      <c r="G47" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K47" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B48" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F48" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E48" s="9" t="s">
+      <c r="G48" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K48" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B49" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F49" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="G49" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K49" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="27.6" customHeight="1">
+    <row r="50" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B50" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F50" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F50" s="9" t="s">
+      <c r="G50" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>175</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K50" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B51" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F51" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E51" s="9" t="s">
+      <c r="G51" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K51" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B52" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F52" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E52" s="9" t="s">
+      <c r="G52" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K52" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B53" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F53" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E53" s="9" t="s">
+      <c r="G53" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K53" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B54" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F54" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C54" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E54" s="9" t="s">
+      <c r="G54" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K54" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B55" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F55" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E55" s="9" t="s">
+      <c r="G55" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K55" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B56" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F56" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E56" s="9" t="s">
+      <c r="G56" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K56" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="37.799999999999997" customHeight="1">
+    <row r="57" spans="1:11" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>171</v>
-      </c>
       <c r="C57" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K57" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="34.200000000000003" customHeight="1">
+    <row r="58" spans="1:11" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E58" s="9" t="s">
+      <c r="F58" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G58" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K58" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -5538,469 +5610,469 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="1:11" ht="39.6" customHeight="1">
+    <row r="60" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D60" s="9" t="s">
+      <c r="E60" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F60" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="E60" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="F60" s="9" t="s">
+      <c r="G60" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>201</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K60" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="26.4">
+    <row r="61" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D61" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F61" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="E61" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="F61" s="9" t="s">
+      <c r="G61" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>201</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K61" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="26.4">
+    <row r="62" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D62" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F62" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="E62" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="F62" s="9" t="s">
+      <c r="G62" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>201</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K62" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="26.4">
+    <row r="63" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D63" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F63" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="E63" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="F63" s="9" t="s">
+      <c r="G63" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>201</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K63" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="26.4">
+    <row r="64" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D64" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F64" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="E64" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="F64" s="9" t="s">
+      <c r="G64" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>201</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K64" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="26.4">
+    <row r="65" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D65" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F65" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="E65" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="F65" s="9" t="s">
+      <c r="G65" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>201</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K65" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="39.6">
+    <row r="66" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D66" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E66" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E66" s="9" t="s">
-        <v>198</v>
-      </c>
       <c r="F66" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K66" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="26.4">
+    <row r="67" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D67" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F67" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="E67" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="F67" s="9" t="s">
+      <c r="G67" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>201</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K67" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="26.4">
+    <row r="68" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D68" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E68" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E68" s="9" t="s">
-        <v>198</v>
-      </c>
       <c r="F68" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K68" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="26.4">
+    <row r="69" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D69" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F69" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="E69" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="F69" s="9" t="s">
+      <c r="G69" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>201</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K69" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="26.4">
+    <row r="70" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D70" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F70" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="E70" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="F70" s="9" t="s">
+      <c r="G70" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>201</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K70" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="26.4">
+    <row r="71" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D71" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E71" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E71" s="9" t="s">
-        <v>198</v>
-      </c>
       <c r="F71" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K71" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="26.4">
+    <row r="72" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F72" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="G72" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>201</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K72" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="26.4">
+    <row r="73" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E73" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F73" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="F73" s="9" t="s">
-        <v>200</v>
-      </c>
       <c r="G73" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K73" s="14">
         <v>45394</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="22"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -6009,907 +6081,930 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
     </row>
-    <row r="75" spans="1:11" ht="33" customHeight="1">
+    <row r="75" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D75" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="G75" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K75" s="14">
         <v>45397</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="26.4">
+    <row r="76" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D76" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="G76" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K76" s="14">
         <v>45397</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="26.4">
+    <row r="77" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D77" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="G77" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K77" s="14">
         <v>45397</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="26.4">
+    <row r="78" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D78" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="G78" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K78" s="14">
         <v>45397</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="26.4">
+    <row r="79" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D79" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="G79" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K79" s="14">
         <v>45397</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="52.8">
+    <row r="80" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B80" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C80" s="9" t="s">
-        <v>208</v>
-      </c>
       <c r="D80" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K80" s="14">
         <v>45397</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="26.4">
+    <row r="81" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D81" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="G81" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K81" s="14">
         <v>45397</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="26.4">
+    <row r="82" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D82" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="G82" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K82" s="14">
         <v>45397</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="26.4">
+    <row r="83" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D83" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="G83" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K83" s="14">
         <v>45397</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="26.4">
+    <row r="84" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D84" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="G84" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K84" s="14">
         <v>45397</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="26.4">
+    <row r="85" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D85" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="G85" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="G85" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K85" s="14">
         <v>45397</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="26.4">
+    <row r="86" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D86" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B86" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D86" s="9" t="s">
+      <c r="E86" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="G86" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K86" s="14">
         <v>45397</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="26.4">
+    <row r="87" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E87" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="D87" s="9" t="s">
+      <c r="F87" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="I87" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K87" s="14">
+        <v>45404</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A88" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F88" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E87" s="9" t="s">
+      <c r="G88" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="F87" s="9" t="s">
+      <c r="H88" s="1"/>
+      <c r="I88" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K88" s="14">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A89" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B89" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="G87" s="9" t="s">
+      <c r="C89" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F89" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1" t="s">
+      <c r="G89" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K89" s="14">
+        <v>45404</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="38.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="J87" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="K87" s="14">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="22"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-    </row>
-    <row r="89" spans="1:11" ht="39.6">
-      <c r="A89" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B89" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F89" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="G89" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="K89" s="14">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="38.4" customHeight="1">
-      <c r="A92" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="D92" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K92" s="29">
         <v>45403</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="26.4">
+    <row r="93" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A93" s="28" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K93" s="29">
         <v>45403</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="26.4">
+    <row r="94" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A94" s="28" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K94" s="29">
         <v>45403</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="26.4">
+    <row r="95" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A95" s="28" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E95" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G95" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="G95" s="9" t="s">
-        <v>271</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K95" s="29">
         <v>45403</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="26.4">
+    <row r="96" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A96" s="28" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="D96" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="G96" s="9" t="s">
         <v>266</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K96" s="29">
         <v>45403</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="26.4">
+    <row r="97" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A97" s="28" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K97" s="29">
         <v>45403</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="51" customHeight="1">
+    <row r="98" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="28" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H98" s="1"/>
-      <c r="I98" s="1" t="s">
-        <v>54</v>
+      <c r="I98" s="32" t="s">
+        <v>301</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K98" s="29">
-        <v>45403</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="57" customHeight="1">
+        <v>45404</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="28" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K99" s="29">
         <v>45403</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="39.6">
+    <row r="100" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A100" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="E100" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H100" s="1"/>
-      <c r="I100" s="1" t="s">
-        <v>54</v>
+      <c r="I100" s="32" t="s">
+        <v>302</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K100" s="29">
-        <v>45403</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="55.2" customHeight="1">
+        <v>45404</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="F101" s="9" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K101" s="29">
         <v>45403</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="52.8">
+    <row r="102" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A102" s="28" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K102" s="29">
         <v>45403</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="38.4" customHeight="1">
+    <row r="103" spans="1:11" ht="38.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="28" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="H103" s="1"/>
+        <v>278</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>303</v>
+      </c>
       <c r="I103" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K103" s="29">
         <v>45403</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="31.8" customHeight="1">
+    <row r="104" spans="1:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="28" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="H104" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>303</v>
+      </c>
       <c r="I104" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K104" s="29">
         <v>45403</v>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="308">
   <si>
     <t>単体テスト</t>
     <rPh sb="0" eb="2">
@@ -2136,25 +2136,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>確認画面で表示されたデータが正しくDBに格納されている。</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>確認画面から「登録する」ボタンを押して、DBに登録させ、コマンドプロンプトなどでテーブルにデータが入っているか確認。</t>
     <rPh sb="0" eb="4">
       <t>カクニンガメン</t>
@@ -2205,34 +2186,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>確認画面で表示されたデータが正しくDBに格納されている。パスワードはハッシュ化され、元のパスワードが復元できないようになっている。</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>フクゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>表示</t>
     <rPh sb="0" eb="2">
       <t>ヒョウジ</t>
@@ -3105,28 +3058,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データが正しくDBに格納されている。削除フラグが「0」の場合は「有効」、「1」のときは無効にする。</t>
-    <rPh sb="4" eb="5">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ムコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データベースに正しくインサートできなかったとき、「エラーが発生したため、アカウント登録できませんでした」と赤字で表示させる。</t>
     <rPh sb="7" eb="8">
       <t>タダ</t>
@@ -3163,6 +3094,151 @@
     </rPh>
     <rPh sb="4" eb="7">
       <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面で表示されたデータが正しくDBに格納されている。Varchar(100)</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面で表示されたデータが正しくDBに格納されている。Varchar(255)</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面で表示されたデータが正しくDBに格納されている。パスワードはハッシュ化され、元のパスワードが復元できないようになっている。Varchar(255)</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>フクゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面で表示されたデータが正しくDBに格納されている。Int(1)</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面で表示されたデータが正しくDBに格納されている。Int(7)</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面で表示されたデータが正しくDBに格納されている。(255)</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データが正しくDBに格納されている。削除フラグが「0」の場合は「有効」、「1」のときは無効にする。Int(1)</t>
+    <rPh sb="4" eb="5">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ムコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3768,8 +3844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C100" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="K101" sqref="K101"/>
+    <sheetView tabSelected="1" topLeftCell="C94" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4685,7 +4761,7 @@
         <v>109</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
@@ -4735,7 +4811,7 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J31" s="13" t="s">
         <v>73</v>
@@ -4768,7 +4844,7 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J32" s="13" t="s">
         <v>73</v>
@@ -4801,7 +4877,7 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J33" s="13" t="s">
         <v>73</v>
@@ -4834,7 +4910,7 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J34" s="13" t="s">
         <v>73</v>
@@ -4867,7 +4943,7 @@
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J35" s="13" t="s">
         <v>73</v>
@@ -4900,7 +4976,7 @@
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J36" s="13" t="s">
         <v>73</v>
@@ -4927,7 +5003,7 @@
         <v>141</v>
       </c>
       <c r="I37" s="27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J37" s="13" t="s">
         <v>73</v>
@@ -4960,7 +5036,7 @@
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J38" s="13" t="s">
         <v>73</v>
@@ -4993,7 +5069,7 @@
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J39" s="13" t="s">
         <v>73</v>
@@ -5026,7 +5102,7 @@
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J40" s="13" t="s">
         <v>73</v>
@@ -5059,7 +5135,7 @@
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J41" s="13" t="s">
         <v>73</v>
@@ -5115,7 +5191,7 @@
         <v>151</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
@@ -6098,17 +6174,17 @@
         <v>221</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>222</v>
+        <v>301</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K75" s="14">
         <v>45397</v>
@@ -6131,17 +6207,17 @@
         <v>221</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>222</v>
+        <v>301</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K76" s="14">
         <v>45397</v>
@@ -6164,17 +6240,17 @@
         <v>221</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>222</v>
+        <v>301</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K77" s="14">
         <v>45397</v>
@@ -6197,17 +6273,17 @@
         <v>221</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>222</v>
+        <v>301</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K78" s="14">
         <v>45397</v>
@@ -6230,17 +6306,17 @@
         <v>221</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>222</v>
+        <v>302</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K79" s="14">
         <v>45397</v>
@@ -6263,17 +6339,17 @@
         <v>221</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>225</v>
+        <v>303</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K80" s="14">
         <v>45397</v>
@@ -6296,17 +6372,17 @@
         <v>221</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>222</v>
+        <v>304</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K81" s="14">
         <v>45397</v>
@@ -6329,17 +6405,17 @@
         <v>221</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>222</v>
+        <v>305</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K82" s="14">
         <v>45397</v>
@@ -6362,17 +6438,17 @@
         <v>221</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>222</v>
+        <v>301</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K83" s="14">
         <v>45397</v>
@@ -6395,17 +6471,17 @@
         <v>221</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>222</v>
+        <v>301</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K84" s="14">
         <v>45397</v>
@@ -6428,17 +6504,17 @@
         <v>221</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K85" s="14">
         <v>45397</v>
@@ -6461,17 +6537,17 @@
         <v>221</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>222</v>
+        <v>304</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K86" s="14">
         <v>45397</v>
@@ -6485,7 +6561,7 @@
         <v>204</v>
       </c>
       <c r="C87" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>220</v>
@@ -6494,16 +6570,16 @@
         <v>221</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="I87" s="31" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K87" s="14">
         <v>45404</v>
@@ -6511,7 +6587,7 @@
     </row>
     <row r="88" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>204</v>
@@ -6520,23 +6596,23 @@
         <v>207</v>
       </c>
       <c r="D88" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="F88" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="E88" s="9" t="s">
+      <c r="G88" s="9" t="s">
         <v>227</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>229</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K88" s="14">
         <v>45397</v>
@@ -6544,32 +6620,32 @@
     </row>
     <row r="89" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B89" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C89" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C89" s="9" t="s">
-        <v>232</v>
-      </c>
       <c r="D89" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="32" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K89" s="14">
         <v>45404</v>
@@ -6577,32 +6653,32 @@
     </row>
     <row r="92" spans="1:11" ht="38.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F92" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="G92" s="9" t="s">
         <v>263</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K92" s="29">
         <v>45403</v>
@@ -6610,32 +6686,32 @@
     </row>
     <row r="93" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A93" s="28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="D93" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K93" s="29">
         <v>45403</v>
@@ -6643,32 +6719,32 @@
     </row>
     <row r="94" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A94" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K94" s="29">
         <v>45403</v>
@@ -6676,32 +6752,32 @@
     </row>
     <row r="95" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A95" s="28" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K95" s="29">
         <v>45403</v>
@@ -6709,32 +6785,32 @@
     </row>
     <row r="96" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A96" s="28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K96" s="29">
         <v>45403</v>
@@ -6742,32 +6818,32 @@
     </row>
     <row r="97" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A97" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D97" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F97" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>264</v>
-      </c>
       <c r="G97" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K97" s="29">
         <v>45403</v>
@@ -6775,32 +6851,32 @@
     </row>
     <row r="98" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="32" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K98" s="29">
         <v>45404</v>
@@ -6808,32 +6884,32 @@
     </row>
     <row r="99" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="28" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K99" s="29">
         <v>45403</v>
@@ -6841,32 +6917,32 @@
     </row>
     <row r="100" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A100" s="28" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="32" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K100" s="29">
         <v>45404</v>
@@ -6874,32 +6950,32 @@
     </row>
     <row r="101" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="28" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K101" s="29">
         <v>45403</v>
@@ -6907,34 +6983,34 @@
     </row>
     <row r="102" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A102" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="E102" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K102" s="29">
         <v>45403</v>
@@ -6942,34 +7018,34 @@
     </row>
     <row r="103" spans="1:11" ht="38.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="F103" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K103" s="29">
         <v>45403</v>
@@ -6977,34 +7053,34 @@
     </row>
     <row r="104" spans="1:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="G104" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="G104" s="9" t="s">
-        <v>279</v>
-      </c>
       <c r="H104" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K104" s="29">
         <v>45403</v>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="452">
   <si>
     <t>単体テスト</t>
     <rPh sb="0" eb="2">
@@ -3054,10 +3054,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データベースに正しくインサートできなかったとき、「エラーが発生したため、アカウント登録できませんでした」と赤字で表示させる。</t>
     <rPh sb="7" eb="8">
       <t>タダ</t>
@@ -3077,14 +3073,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>遷移先は未実装</t>
     <rPh sb="0" eb="2">
       <t>センイ</t>
@@ -3240,6 +3228,1414 @@
     <rPh sb="43" eb="45">
       <t>ムコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5ー1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（姓）</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（都道府県）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市区町村）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シクマチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除画面表示</t>
+    <rPh sb="0" eb="4">
+      <t>サクジョガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list.phpの「削除ボタン」から遷移して、DBから選んだデータが正しく表示されているか確認</t>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「確認する」ボタンが正しく表示されているか確認。</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「確認する」ボタンが正しく表示されているか確認</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧から選んだデータがDBから抽出され、名前（姓）が表示されている。</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧から選んだデータがDBから抽出され、名前（名）が表示されている。</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧から選んだデータがDBから抽出され、カナ（姓）が表示されている。</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧から選んだデータがDBから抽出され、カナ（名）が表示されている。</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧から選んだデータがDBから抽出され、メールアドレスが表示されている。</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧から選んだデータがDBから抽出され、性別が表示されている。</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧から選んだデータがDBから抽出され、郵便番号が表示されている。</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧から選んだデータがDBから抽出され、住所（都道府県）が表示されている。</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧から選んだデータがDBから抽出され、住所（市区町村）が表示されている。</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>チョウソン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧から選んだデータがDBから抽出され、住所（番地）が表示されている。</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧から選んだデータがDBから抽出され、アカウント権限が表示されている。</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「確認する」ボタンが正しく表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5ー2</t>
+  </si>
+  <si>
+    <t>5ー3</t>
+  </si>
+  <si>
+    <t>5ー4</t>
+  </si>
+  <si>
+    <t>5ー5</t>
+  </si>
+  <si>
+    <t>5ー6</t>
+  </si>
+  <si>
+    <t>5ー7</t>
+  </si>
+  <si>
+    <t>5ー8</t>
+  </si>
+  <si>
+    <t>5ー9</t>
+  </si>
+  <si>
+    <t>5ー10</t>
+  </si>
+  <si>
+    <t>5ー11</t>
+  </si>
+  <si>
+    <t>5ー12</t>
+  </si>
+  <si>
+    <t>5ー13</t>
+  </si>
+  <si>
+    <t>6ー1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete_confirm.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト表示</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「前に戻る」ボタン</t>
+    <rPh sb="1" eb="2">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「削除」ボタン</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「本当に削除してよろしいですか」と赤字で表示。</t>
+    <rPh sb="1" eb="3">
+      <t>ホントウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete.phpから削除確認画面に遷移し、テキスト表示がされているか確認。</t>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete.phpから削除確認画面に遷移し、ボタン表示がされているか確認。</t>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「前に戻る」ボタンが正しく表示されている。</t>
+    <rPh sb="1" eb="2">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「削除」ボタンが正しく表示されている。</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6ー2</t>
+  </si>
+  <si>
+    <t>6ー3</t>
+  </si>
+  <si>
+    <t>7ー1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete_complete.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「TOPへ戻る」ボタン</t>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7ー2</t>
+  </si>
+  <si>
+    <t>delete_confirm.phpから削除完了画面に遷移し、テキスト表示がされているか確認。</t>
+    <rPh sb="20" eb="22">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>カンリョウガメン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete_confirm.phpから削除完了画面に遷移し、ボタン表示がされているか確認。</t>
+    <rPh sb="20" eb="22">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>カンリョウガメン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「削除が完了しました」と赤字で表示。</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「TOPへ戻る」と赤字で表示。</t>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8ー1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市区町村）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シクチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新画面表示</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list.phpから更新画面に遷移し、DBから選んだデータが正しく表示されているか確認。</t>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8ー2</t>
+  </si>
+  <si>
+    <t>8ー3</t>
+  </si>
+  <si>
+    <t>8ー4</t>
+  </si>
+  <si>
+    <t>8ー5</t>
+  </si>
+  <si>
+    <t>8ー6</t>
+  </si>
+  <si>
+    <t>8ー7</t>
+  </si>
+  <si>
+    <t>8ー8</t>
+  </si>
+  <si>
+    <t>8ー9</t>
+  </si>
+  <si>
+    <t>8ー10</t>
+  </si>
+  <si>
+    <t>8ー11</t>
+  </si>
+  <si>
+    <t>8ー12</t>
+  </si>
+  <si>
+    <t>8ー13</t>
+  </si>
+  <si>
+    <t>アカウント一覧から選んだデータがDBから抽出され、名前（姓）が表示されている。最大10文字まで。</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧から選んだデータがDBから抽出され、名前（名）が表示されている。最大10文字。</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧から選んだデータがDBから抽出され、カナ（姓）が表示されている。最大10文字。</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧から選んだデータがDBから抽出され、カナ（名）が表示されている。最大10文字。</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧から選んだデータがDBから抽出され、メールアドレスが表示されている。最大100文字。</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＊ハッシュ化されたパスワードを表示させることはできないので、空欄</t>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>クウラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧から選んだデータがDBから抽出され、郵便番号が表示されている。最大7文字。</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧から選んだデータがDBから抽出され、住所（市区町村）が表示されている。最大10文字。</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>シクチョウソン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧から選んだデータがDBから抽出され、アカウント権限が表示されている。最大</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サイダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧から選んだデータがDBから抽出され、住所（番地）が表示されている。最大10文字。</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10ー1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update_confirm.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（姓）</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（都道府県）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市区町村）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シクチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新確認画面表示</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンカクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10ー2</t>
+  </si>
+  <si>
+    <t>10ー3</t>
+  </si>
+  <si>
+    <t>10ー4</t>
+  </si>
+  <si>
+    <t>10ー5</t>
+  </si>
+  <si>
+    <t>10ー6</t>
+  </si>
+  <si>
+    <t>10ー7</t>
+  </si>
+  <si>
+    <t>10ー8</t>
+  </si>
+  <si>
+    <t>10ー9</t>
+  </si>
+  <si>
+    <t>10ー10</t>
+  </si>
+  <si>
+    <t>10ー11</t>
+  </si>
+  <si>
+    <t>10ー12</t>
+  </si>
+  <si>
+    <t>10ー13</t>
+  </si>
+  <si>
+    <t>10ー14</t>
+  </si>
+  <si>
+    <t>update.phpにある「確認する」ボタンを押し、遷移する。</t>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>udate.phpで入力した内容が正しく表示できているか確認</t>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>udate.phpで入力した内容が正しく表示できているか確認。パスワードに関しては、未入力の場合、何も表示されない。</t>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11ー1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update_complete.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「前に戻る」ボタンが表示されていて、遷移できる。</t>
+    <rPh sb="1" eb="2">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「更新する」ボタンが表示されていて、遷移できる。</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト表示</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新完了画面表示</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>カンリョウガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update_confirm.phpにある「更新する」ボタンを押し、遷移させる。</t>
+    <rPh sb="22" eb="24">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「更新が完了しました」と赤字で表示される。</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「TOPへ戻る」ボタンで、index.htmlに遷移される。</t>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11ー2</t>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュ化されたパスワードを表示できないので、表示しない。</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柴田航昂</t>
+    <rPh sb="0" eb="2">
+      <t>シバタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タカブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柴田航昂</t>
+    <rPh sb="0" eb="3">
+      <t>シバタコウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タカブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3247,7 +4643,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3297,15 +4693,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3462,7 +4849,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3507,9 +4894,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3556,10 +4940,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3842,10 +5241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:K157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C94" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I152" sqref="I152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3854,9 +5253,9 @@
     <col min="2" max="2" width="18.109375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="5" max="5" width="21.21875" customWidth="1"/>
-    <col min="6" max="6" width="59.77734375" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
     <col min="7" max="7" width="37.6640625" customWidth="1"/>
-    <col min="8" max="8" width="24.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" customWidth="1"/>
     <col min="9" max="9" width="16.109375" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" customWidth="1"/>
     <col min="11" max="11" width="14.88671875" customWidth="1"/>
@@ -3864,15 +5263,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -3904,19 +5303,19 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>53</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -4333,13 +5732,13 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="12"/>
@@ -4665,7 +6064,7 @@
         <v>101</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="27" t="s">
+      <c r="I26" s="26" t="s">
         <v>85</v>
       </c>
       <c r="J26" s="13" t="s">
@@ -4698,7 +6097,7 @@
         <v>103</v>
       </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="27" t="s">
+      <c r="I27" s="26" t="s">
         <v>85</v>
       </c>
       <c r="J27" s="13" t="s">
@@ -4775,13 +6174,13 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="12"/>
@@ -4791,16 +6190,16 @@
       <c r="A31" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="16" t="s">
         <v>137</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -4810,7 +6209,7 @@
         <v>139</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="27" t="s">
+      <c r="I31" s="26" t="s">
         <v>234</v>
       </c>
       <c r="J31" s="13" t="s">
@@ -4824,16 +6223,16 @@
       <c r="A32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="16" t="s">
         <v>137</v>
       </c>
       <c r="F32" s="9" t="s">
@@ -4843,7 +6242,7 @@
         <v>142</v>
       </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="27" t="s">
+      <c r="I32" s="26" t="s">
         <v>234</v>
       </c>
       <c r="J32" s="13" t="s">
@@ -4857,16 +6256,16 @@
       <c r="A33" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="16" t="s">
         <v>137</v>
       </c>
       <c r="F33" s="9" t="s">
@@ -4876,7 +6275,7 @@
         <v>143</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="27" t="s">
+      <c r="I33" s="26" t="s">
         <v>234</v>
       </c>
       <c r="J33" s="13" t="s">
@@ -4890,16 +6289,16 @@
       <c r="A34" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="16" t="s">
         <v>137</v>
       </c>
       <c r="F34" s="9" t="s">
@@ -4909,7 +6308,7 @@
         <v>144</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="27" t="s">
+      <c r="I34" s="26" t="s">
         <v>234</v>
       </c>
       <c r="J34" s="13" t="s">
@@ -4923,16 +6322,16 @@
       <c r="A35" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="16" t="s">
         <v>137</v>
       </c>
       <c r="F35" s="9" t="s">
@@ -4942,7 +6341,7 @@
         <v>145</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="27" t="s">
+      <c r="I35" s="26" t="s">
         <v>234</v>
       </c>
       <c r="J35" s="13" t="s">
@@ -4956,16 +6355,16 @@
       <c r="A36" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="16" t="s">
         <v>137</v>
       </c>
       <c r="F36" s="9" t="s">
@@ -4975,7 +6374,7 @@
         <v>146</v>
       </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="27" t="s">
+      <c r="I36" s="26" t="s">
         <v>234</v>
       </c>
       <c r="J36" s="13" t="s">
@@ -4985,24 +6384,24 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I37" s="27" t="s">
+      <c r="I37" s="26" t="s">
         <v>234</v>
       </c>
       <c r="J37" s="13" t="s">
@@ -5016,16 +6415,16 @@
       <c r="A38" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="16" t="s">
         <v>137</v>
       </c>
       <c r="F38" s="9" t="s">
@@ -5035,7 +6434,7 @@
         <v>147</v>
       </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="27" t="s">
+      <c r="I38" s="26" t="s">
         <v>234</v>
       </c>
       <c r="J38" s="13" t="s">
@@ -5049,16 +6448,16 @@
       <c r="A39" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="16" t="s">
         <v>137</v>
       </c>
       <c r="F39" s="9" t="s">
@@ -5068,7 +6467,7 @@
         <v>148</v>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="27" t="s">
+      <c r="I39" s="26" t="s">
         <v>234</v>
       </c>
       <c r="J39" s="13" t="s">
@@ -5082,16 +6481,16 @@
       <c r="A40" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="16" t="s">
         <v>137</v>
       </c>
       <c r="F40" s="9" t="s">
@@ -5101,7 +6500,7 @@
         <v>149</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="27" t="s">
+      <c r="I40" s="26" t="s">
         <v>234</v>
       </c>
       <c r="J40" s="13" t="s">
@@ -5115,16 +6514,16 @@
       <c r="A41" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="16" t="s">
         <v>137</v>
       </c>
       <c r="F41" s="9" t="s">
@@ -5134,7 +6533,7 @@
         <v>150</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="27" t="s">
+      <c r="I41" s="26" t="s">
         <v>234</v>
       </c>
       <c r="J41" s="13" t="s">
@@ -5144,26 +6543,28 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="16" t="s">
         <v>138</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="15" t="s">
+      <c r="H42" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I42" s="1"/>
+      <c r="I42" s="1" t="s">
+        <v>444</v>
+      </c>
       <c r="J42" s="13" t="s">
         <v>73</v>
       </c>
@@ -5175,7 +6576,7 @@
       <c r="A43" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>124</v>
       </c>
       <c r="C43" s="9" t="s">
@@ -5205,7 +6606,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="22"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -5213,7 +6614,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="J44" s="5"/>
-      <c r="K44" s="16"/>
+      <c r="K44" s="15"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
@@ -5678,7 +7079,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="22"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -6149,7 +7550,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="22"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -6177,7 +7578,7 @@
         <v>222</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1" t="s">
@@ -6210,7 +7611,7 @@
         <v>222</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1" t="s">
@@ -6243,7 +7644,7 @@
         <v>222</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1" t="s">
@@ -6276,7 +7677,7 @@
         <v>222</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1" t="s">
@@ -6309,7 +7710,7 @@
         <v>222</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1" t="s">
@@ -6342,7 +7743,7 @@
         <v>223</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1" t="s">
@@ -6375,7 +7776,7 @@
         <v>222</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1" t="s">
@@ -6408,7 +7809,7 @@
         <v>222</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1" t="s">
@@ -6441,7 +7842,7 @@
         <v>222</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1" t="s">
@@ -6474,7 +7875,7 @@
         <v>222</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1" t="s">
@@ -6507,7 +7908,7 @@
         <v>222</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1" t="s">
@@ -6540,7 +7941,7 @@
         <v>222</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1" t="s">
@@ -6560,7 +7961,7 @@
       <c r="B87" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C87" s="30" t="s">
+      <c r="C87" s="29" t="s">
         <v>295</v>
       </c>
       <c r="D87" s="9" t="s">
@@ -6573,10 +7974,10 @@
         <v>222</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="I87" s="31" t="s">
-        <v>296</v>
+        <v>304</v>
+      </c>
+      <c r="I87" s="30" t="s">
+        <v>337</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>232</v>
@@ -6622,27 +8023,27 @@
       <c r="A89" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B89" s="17" t="s">
+      <c r="B89" s="16" t="s">
         <v>228</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="D89" s="17" t="s">
+      <c r="D89" s="16" t="s">
         <v>224</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="F89" s="17" t="s">
+      <c r="F89" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="G89" s="17" t="s">
-        <v>297</v>
+      <c r="G89" s="16" t="s">
+        <v>296</v>
       </c>
       <c r="H89" s="1"/>
-      <c r="I89" s="32" t="s">
-        <v>296</v>
+      <c r="I89" s="31" t="s">
+        <v>338</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>233</v>
@@ -6652,7 +8053,7 @@
       </c>
     </row>
     <row r="92" spans="1:11" ht="38.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="28" t="s">
+      <c r="A92" s="27" t="s">
         <v>248</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -6680,12 +8081,12 @@
       <c r="J92" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="K92" s="29">
+      <c r="K92" s="28">
         <v>45403</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A93" s="28" t="s">
+      <c r="A93" s="27" t="s">
         <v>249</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -6713,12 +8114,12 @@
       <c r="J93" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="K93" s="29">
+      <c r="K93" s="28">
         <v>45403</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A94" s="28" t="s">
+      <c r="A94" s="27" t="s">
         <v>250</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -6746,12 +8147,12 @@
       <c r="J94" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="K94" s="29">
+      <c r="K94" s="28">
         <v>45403</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A95" s="28" t="s">
+      <c r="A95" s="27" t="s">
         <v>251</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -6779,12 +8180,12 @@
       <c r="J95" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="K95" s="29">
+      <c r="K95" s="28">
         <v>45403</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A96" s="28" t="s">
+      <c r="A96" s="27" t="s">
         <v>252</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -6812,12 +8213,12 @@
       <c r="J96" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="K96" s="29">
+      <c r="K96" s="28">
         <v>45403</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A97" s="28" t="s">
+      <c r="A97" s="27" t="s">
         <v>253</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -6845,12 +8246,12 @@
       <c r="J97" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="K97" s="29">
+      <c r="K97" s="28">
         <v>45403</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="28" t="s">
+      <c r="A98" s="27" t="s">
         <v>254</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -6872,18 +8273,18 @@
         <v>269</v>
       </c>
       <c r="H98" s="1"/>
-      <c r="I98" s="32" t="s">
-        <v>298</v>
+      <c r="I98" s="31" t="s">
+        <v>339</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="K98" s="29">
+      <c r="K98" s="28">
         <v>45404</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="28" t="s">
+      <c r="A99" s="27" t="s">
         <v>255</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -6911,12 +8312,12 @@
       <c r="J99" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="K99" s="29">
+      <c r="K99" s="28">
         <v>45403</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A100" s="28" t="s">
+      <c r="A100" s="27" t="s">
         <v>256</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -6938,18 +8339,18 @@
         <v>271</v>
       </c>
       <c r="H100" s="1"/>
-      <c r="I100" s="32" t="s">
-        <v>299</v>
+      <c r="I100" s="31" t="s">
+        <v>337</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="K100" s="29">
+      <c r="K100" s="28">
         <v>45404</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="28" t="s">
+      <c r="A101" s="27" t="s">
         <v>257</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -6977,12 +8378,12 @@
       <c r="J101" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="K101" s="29">
+      <c r="K101" s="28">
         <v>45403</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A102" s="28" t="s">
+      <c r="A102" s="27" t="s">
         <v>258</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -7012,12 +8413,12 @@
       <c r="J102" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="K102" s="29">
+      <c r="K102" s="28">
         <v>45403</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="38.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="28" t="s">
+      <c r="A103" s="27" t="s">
         <v>259</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -7038,8 +8439,8 @@
       <c r="G103" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="H103" s="1" t="s">
-        <v>300</v>
+      <c r="H103" s="9" t="s">
+        <v>297</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>54</v>
@@ -7047,12 +8448,12 @@
       <c r="J103" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="K103" s="29">
+      <c r="K103" s="28">
         <v>45403</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="28" t="s">
+      <c r="A104" s="27" t="s">
         <v>275</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -7073,8 +8474,8 @@
       <c r="G104" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="H104" s="1" t="s">
-        <v>300</v>
+      <c r="H104" s="9" t="s">
+        <v>297</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>54</v>
@@ -7082,8 +8483,1562 @@
       <c r="J104" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="K104" s="29">
+      <c r="K104" s="28">
         <v>45403</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A106" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F106" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="G106" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="K106" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A107" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F107" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="G107" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="K107" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A108" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F108" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="G108" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="K108" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A109" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F109" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="G109" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="K109" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A110" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F110" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="G110" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="K110" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A111" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F111" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="G111" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="K111" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A112" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F112" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="G112" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="K112" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A113" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F113" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="G113" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="K113" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A114" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F114" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="G114" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="K114" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A115" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F115" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="G115" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="K115" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A116" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F116" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="G116" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="K116" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A117" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F117" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="G117" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="K117" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F118" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="G118" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="K118" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A120" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F120" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="G120" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K120" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A121" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F121" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="G121" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K121" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A122" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F122" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="G122" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K122" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A124" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F124" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="G124" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J124" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="K124" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A125" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F125" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="G125" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K125" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" s="33"/>
+    </row>
+    <row r="127" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A127" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F127" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="G127" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K127" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A128" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F128" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="G128" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K128" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A129" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F129" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="G129" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K129" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A130" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F130" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="G130" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K130" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A131" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F131" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="G131" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K131" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A132" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F132" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="G132" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K132" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A133" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F133" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="G133" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K133" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A134" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F134" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="G134" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K134" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A135" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F135" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="G135" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K135" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A136" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F136" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="G136" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K136" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A137" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F137" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="G137" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K137" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A138" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F138" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="G138" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K138" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A139" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F139" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="G139" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K139" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A141" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F141" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="G141" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K141" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A142" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F142" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="G142" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K142" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A143" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F143" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="G143" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K143" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A144" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F144" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="G144" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K144" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A145" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F145" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="G145" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K145" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A146" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F146" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="G146" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K146" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A147" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F147" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="G147" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K147" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A148" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F148" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="G148" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K148" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A149" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F149" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="G149" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K149" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A150" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F150" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="G150" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K150" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A151" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F151" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="G151" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K151" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A152" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F152" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="G152" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K152" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A153" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F153" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="G153" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K153" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A154" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F154" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="G154" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K154" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="32" t="s">
+        <v>434</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F156" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="G156" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K156" s="32">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A157" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F157" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="G157" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K157" s="32">
+        <v>45425</v>
       </c>
     </row>
   </sheetData>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="505">
   <si>
     <t>単体テスト</t>
     <rPh sb="0" eb="2">
@@ -4636,6 +4636,814 @@
   </si>
   <si>
     <t>NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12ー1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面表示</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>urlなどに直接打ち込んでlogin.phpに入る。</t>
+    <rPh sb="6" eb="8">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.phpに遷移したとき、メールアドレスのテキストボックスが表示されている。初期値は空欄で、最大100文字まで。</t>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.phpに遷移したとき、ログインボタンが配置されている。</t>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.phpに遷移したとき、パスワードのテキストボックスが表示されている。初期値は空欄で、最大10文字まで。</t>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12ー2</t>
+  </si>
+  <si>
+    <t>12ー3</t>
+  </si>
+  <si>
+    <t>13ー1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13ー2</t>
+  </si>
+  <si>
+    <t>リスト一覧画面</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.phpから「ログイン」ボタンを押して、遷移させる。</t>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインしたアカウントによって、表示させるかさせないか区別する。アカウント権限が「一般」のときは、表示させない。「管理者」のときは、表示させる。</t>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>クベツ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期画面</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14ー1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list.php (ver.2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list.php (ver.2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（姓）</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list.php (ver.2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.phpからlist.phpに遷移させる。</t>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list.php (ver.1)のときは、最初に遷移した段階でアカウントが一覧として表示されたが、ver.2では検索機能を追加している。名前（姓）のみで検索をかけたとき、それを表示させる。また1文字以上で検索をかけたとき、その文字が1つでも適合していれば、そのアカウントも表示させる。また複数項目で検索をかけたとき、それに該当するアカウントも表示させる。</t>
+    <rPh sb="21" eb="23">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>テキゴウ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="144" eb="148">
+      <t>フクスウコウモク</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="171" eb="173">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list.php (ver.1)のときは、最初に遷移した段階でアカウントが一覧として表示されたが、ver.2では検索機能を追加している。名前（名）のみで検索をかけたとき、それを表示させる。また1文字以上で検索をかけたとき、その文字が2つでも適合していれば、そのアカウントも表示させる。また複数項目で検索をかけたとき、それに該当するアカウントも表示させる。</t>
+    <rPh sb="21" eb="23">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>テキゴウ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="144" eb="148">
+      <t>フクスウコウモク</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="171" eb="173">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14ー2</t>
+  </si>
+  <si>
+    <t>14ー3</t>
+  </si>
+  <si>
+    <t>14ー4</t>
+  </si>
+  <si>
+    <t>14ー5</t>
+  </si>
+  <si>
+    <t>14ー6</t>
+  </si>
+  <si>
+    <t>14ー7</t>
+  </si>
+  <si>
+    <t>14ー8</t>
+  </si>
+  <si>
+    <t>list.php (ver.1)のときは、最初に遷移した段階でアカウントが一覧として表示されたが、ver.2では検索機能を追加している。カナ（姓）のみで検索をかけたとき、それを表示させる。また1文字以上で検索をかけたとき、その文字が3つでも適合していれば、そのアカウントも表示させる。また複数項目で検索をかけたとき、それに該当するアカウントも表示させる。</t>
+    <rPh sb="21" eb="23">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>テキゴウ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="144" eb="148">
+      <t>フクスウコウモク</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="171" eb="173">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list.php (ver.1)のときは、最初に遷移した段階でアカウントが一覧として表示されたが、ver.2では検索機能を追加している。カナ（名）のみで検索をかけたとき、それを表示させる。また1文字以上で検索をかけたとき、その文字が4つでも適合していれば、そのアカウントも表示させる。また複数項目で検索をかけたとき、それに該当するアカウントも表示させる。</t>
+    <rPh sb="21" eb="23">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>テキゴウ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="144" eb="148">
+      <t>フクスウコウモク</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="171" eb="173">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list.php (ver.1)のときは、最初に遷移した段階でアカウントが一覧として表示されたが、ver.2では検索機能を追加している。メールアドレスのみで検索をかけたとき、それを表示させる。また1文字以上で検索をかけたとき、その文字が5つでも適合していれば、そのアカウントも表示させる。また複数項目で検索をかけたとき、それに該当するアカウントも表示させる。</t>
+    <rPh sb="21" eb="23">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>テキゴウ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="146" eb="150">
+      <t>フクスウコウモク</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索フォームの右下に「検索」ボタンが表示されている。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ミギシタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list.php (ver.1)のときは、最初に遷移した段階でアカウントが一覧として表示されたが、ver.2では検索機能を追加している。性別のみで検索をかけたとき、それを表示させる。また1文字以上で検索をかけたとき、その文字が6つでも適合していれば、そのアカウントも表示させる。また複数項目で検索をかけたとき、それに該当するアカウントも表示させる。初期値は「男」。</t>
+    <rPh sb="21" eb="23">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>テキゴウ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="141" eb="145">
+      <t>フクスウコウモク</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="174" eb="177">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="179" eb="180">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list.php (ver.1)のときは、最初に遷移した段階でアカウントが一覧として表示されたが、ver.2では検索機能を追加している。アカウント権限のみで検索をかけたとき、それを表示させる。また1文字以上で検索をかけたとき、その文字が7つでも適合していれば、そのアカウントも表示させる。また複数項目で検索をかけたとき、それに該当するアカウントも表示させる。初期値は「一般」。</t>
+    <rPh sb="21" eb="23">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>テキゴウ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="146" eb="150">
+      <t>フクスウコウモク</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="179" eb="182">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柴田</t>
+    <rPh sb="0" eb="2">
+      <t>シバタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4849,7 +5657,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4960,6 +5768,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5241,10 +6052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K157"/>
+  <dimension ref="A1:K173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I152" sqref="I152"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I195" sqref="I195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5302,7 +6113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
@@ -5335,7 +6146,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -5368,7 +6179,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -5401,7 +6212,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -5434,7 +6245,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -5467,7 +6278,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -5500,7 +6311,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -5533,7 +6344,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -5566,7 +6377,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -5599,7 +6410,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -5632,7 +6443,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
@@ -5665,7 +6476,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
@@ -6616,7 +7427,7 @@
       <c r="J44" s="5"/>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>155</v>
       </c>
@@ -6649,7 +7460,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>156</v>
       </c>
@@ -6682,7 +7493,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>157</v>
       </c>
@@ -6715,7 +7526,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>158</v>
       </c>
@@ -6748,7 +7559,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>159</v>
       </c>
@@ -6814,7 +7625,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>161</v>
       </c>
@@ -6847,7 +7658,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>162</v>
       </c>
@@ -6880,7 +7691,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>163</v>
       </c>
@@ -6913,7 +7724,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>164</v>
       </c>
@@ -6946,7 +7757,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>165</v>
       </c>
@@ -6979,7 +7790,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>166</v>
       </c>
@@ -7591,7 +8402,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>208</v>
       </c>
@@ -7624,7 +8435,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>209</v>
       </c>
@@ -7657,7 +8468,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>210</v>
       </c>
@@ -7690,7 +8501,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>211</v>
       </c>
@@ -7756,7 +8567,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>213</v>
       </c>
@@ -7789,7 +8600,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>214</v>
       </c>
@@ -7822,7 +8633,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>215</v>
       </c>
@@ -7855,7 +8666,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>216</v>
       </c>
@@ -7888,7 +8699,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>217</v>
       </c>
@@ -7921,7 +8732,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>218</v>
       </c>
@@ -8085,7 +8896,7 @@
         <v>45403</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A93" s="27" t="s">
         <v>249</v>
       </c>
@@ -8118,7 +8929,7 @@
         <v>45403</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A94" s="27" t="s">
         <v>250</v>
       </c>
@@ -8151,7 +8962,7 @@
         <v>45403</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A95" s="27" t="s">
         <v>251</v>
       </c>
@@ -8184,7 +8995,7 @@
         <v>45403</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A96" s="27" t="s">
         <v>252</v>
       </c>
@@ -8217,7 +9028,7 @@
         <v>45403</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A97" s="27" t="s">
         <v>253</v>
       </c>
@@ -10039,6 +10850,435 @@
       </c>
       <c r="K157" s="32">
         <v>45425</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A159" s="34" t="s">
+        <v>452</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F159" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="G159" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="K159" s="32">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A160" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F160" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="G160" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="K160" s="32">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A161" s="34" t="s">
+        <v>464</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F161" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="G161" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="K161" s="32">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A163" s="34" t="s">
+        <v>465</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F163" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="G163" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="K163" s="32">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A164" s="34" t="s">
+        <v>468</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F164" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="G164" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="K164" s="32">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="118.8" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F166" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="G166" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="K166" s="32">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="118.8" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F167" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="G167" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="K167" s="32">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="118.8" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F168" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="G168" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="K168" s="32">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="118.8" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F169" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="G169" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="K169" s="32">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="118.8" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F170" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="G170" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="K170" s="32">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="118.8" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F171" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="G171" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="K171" s="32">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="118.8" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F172" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="G172" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="K172" s="32">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F173" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="G173" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="K173" s="32">
+        <v>45436</v>
       </c>
     </row>
   </sheetData>
